--- a/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\LSY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554954A1-DFF1-4084-9FE5-D8C7BAEAB493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3D30A-5993-4996-9C9B-03299D3EF6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
     <sheet name="ショット-2" sheetId="4" r:id="rId2"/>
     <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId3"/>
-    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId4"/>
+    <sheet name="UT-USER02-B-006" sheetId="6" r:id="rId4"/>
+    <sheet name="UT-USER02-B-009" sheetId="7" r:id="rId5"/>
+    <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId6"/>
+    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>UT-USER02-B-003</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +68,13 @@
   </si>
   <si>
     <t>UT-USER02-B-034</t>
+  </si>
+  <si>
+    <t>UT-USER02-B-010</t>
+  </si>
+  <si>
+    <t>UT-USER02-B-009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1784,6 +1794,501 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>274805</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B329693-CEEA-861D-EE2C-B7FE675B97DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="8847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3780AAA2-4BC4-1D5D-8369-DEF6DE9EBDAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7983682" y="1402773"/>
+          <a:ext cx="14703136" cy="207818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>251281</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7840A04E-CF34-1C91-3336-9EBA60791F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16579852" cy="7905750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CC08BA-20B2-4E09-829D-81B05ADAB236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7441747" y="1779814"/>
+          <a:ext cx="14443363" cy="211530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B36EBF2-E8E5-B26A-E9B9-762F5A8B07D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="8847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9738F5-511D-1898-E476-03026E5853B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8146676" y="1804147"/>
+          <a:ext cx="13794442" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563FDC6-978E-B37D-5A5D-9FBB001EA57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="10662" b="26420"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330824" y="9155206"/>
+          <a:ext cx="7104529" cy="4919382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>374576</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>13593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F0B730-182F-26B6-4463-552FD653849A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10208559" y="8897470"/>
+          <a:ext cx="6571429" cy="7790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1142429" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4697D20-C95C-567D-3D7C-611009F1DF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14836588" y="10533530"/>
+          <a:ext cx="1142429" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>SIZE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>不具合</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2316,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="W7:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
@@ -2409,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF54CB6-E1DA-474F-8976-65F24567EE7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
@@ -2422,6 +2927,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA0DD5-BE08-49C4-AEF8-727BF3C4FF3B}">
+  <dimension ref="AB9"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="9" spans="28:28">
+      <c r="AB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93D0EF9-BD16-49CA-AF4C-4A289CB9BB07}">
+  <dimension ref="AB11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="11" spans="28:28">
+      <c r="AB11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22903D74-F125-42FF-A6BB-F581AD312895}">
+  <dimension ref="AD13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD55" sqref="AD55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="13" spans="30:30">
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\LSY_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3D30A-5993-4996-9C9B-03299D3EF6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBED3F2-3719-44E0-9971-F9EF79C1D974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="UT-USER02-B-006" sheetId="6" r:id="rId4"/>
     <sheet name="UT-USER02-B-009" sheetId="7" r:id="rId5"/>
     <sheet name="UT-USER02-B-010" sheetId="5" r:id="rId6"/>
-    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId7"/>
+    <sheet name="UT-USER02-B-012" sheetId="8" r:id="rId7"/>
+    <sheet name="UT-USER02-B-013" sheetId="10" r:id="rId8"/>
+    <sheet name="UT-USER02-B-014" sheetId="9" r:id="rId9"/>
+    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>UT-USER02-B-003</t>
     <phoneticPr fontId="1"/>
@@ -762,6 +765,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508716</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F7219F-0D15-17F5-B58A-42A2045716FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14590476" cy="9380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28024</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48D97BF-6831-5EC1-0FF8-CFD8A40D4F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9892145"/>
+          <a:ext cx="11333333" cy="7933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>540327</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277D525F-0283-88B3-6F61-4954ACBEF690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6525491" y="3269673"/>
+          <a:ext cx="3214254" cy="318654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A667F2-EEB1-4DF2-9EA9-6D37E3E77FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3602182" y="14339455"/>
+          <a:ext cx="2867891" cy="249381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2298,17 +2536,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>508716</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8352</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F7219F-0D15-17F5-B58A-42A2045716FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E02E87-BF40-DC54-F666-F256D9B42007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14590476" cy="9380952"/>
+          <a:ext cx="18285714" cy="8847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,25 +2572,265 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A30B5C6-4DF4-6AE1-196C-216766C61A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8313964" y="2408464"/>
+          <a:ext cx="12069536" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>160933</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48D97BF-6831-5EC1-0FF8-CFD8A40D4F87}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF766E61-8996-42F8-9E29-8B2691111E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="8847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A8B487-6895-4BF9-8EF5-87B795624828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8284028" y="2782661"/>
+          <a:ext cx="1698172" cy="488497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1208664" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E25BB8F-E4EE-43C8-9795-086274160F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="2547257"/>
+          <a:ext cx="1208664" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UT-USER02-B-013</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>280798</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D88B9C-A7F8-4D87-8BE5-1899D29F2FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,8 +2846,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9892145"/>
-          <a:ext cx="11333333" cy="7933333"/>
+          <a:off x="18639064" y="13607"/>
+          <a:ext cx="7016334" cy="4772803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,25 +2856,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC23B3-98B4-3835-81EC-E56D4F494916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="8847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>540327</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>429490</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277D525F-0283-88B3-6F61-4954ACBEF690}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4F4BB8-420B-5CB0-E1AB-38E219A65C69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,8 +2931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6525491" y="3269673"/>
-          <a:ext cx="3214254" cy="318654"/>
+          <a:off x="9906000" y="2707822"/>
+          <a:ext cx="1687286" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2434,93 +2961,123 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1208664" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47589443-01A5-6616-64C0-D7E64668ADF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10137322" y="2476500"/>
+          <a:ext cx="1208664" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UT-USER02-B-014</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>221672</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A667F2-EEB1-4DF2-9EA9-6D37E3E77FCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3602182" y="14339455"/>
-          <a:ext cx="2867891" cy="249381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>229084</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE505EE-1195-FE80-2902-7C14B6256324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18383250" y="0"/>
+          <a:ext cx="7019048" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2894,6 +3451,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3D4BC3-C8D2-4A26-86E8-77A94B0DE188}">
   <dimension ref="A1"/>
@@ -2952,7 +3525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93D0EF9-BD16-49CA-AF4C-4A289CB9BB07}">
   <dimension ref="AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
@@ -2974,7 +3547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22903D74-F125-42FF-A6BB-F581AD312895}">
   <dimension ref="AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
@@ -2993,16 +3566,54 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB342880-C0CF-49F0-A922-C42F5AFBE9AB}">
+  <dimension ref="AB16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="16" spans="28:28">
+      <c r="AB16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A2587E-90CA-4F3D-AC2F-F5F5CCF13885}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD4B7C-33E4-4ACA-B2BE-8BFA7F369CA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
